--- a/bug/即时通信-Bug.xlsx
+++ b/bug/即时通信-Bug.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Wu Rong\Desktop\申论\shenlun\bug\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FB89810-8B01-4566-B7C0-F5683BB49472}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DEEB1363-BECE-456A-81EB-FB71F6232DEC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-109" yWindow="-109" windowWidth="23452" windowHeight="12682" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="即时通信-Bug (1)" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="45">
   <si>
     <t>Bug编号</t>
   </si>
@@ -212,6 +212,14 @@
   </si>
   <si>
     <t>怀业网络问题</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>OK，已处理发生的可能性，继续跟进</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>OK</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -1198,10 +1206,10 @@
   <dimension ref="A1:I13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+      <selection activeCell="I39" sqref="I39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.95" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="3" width="8.88671875" style="1"/>
     <col min="4" max="4" width="27.5546875" style="1" customWidth="1"/>
@@ -1236,7 +1244,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:9" s="4" customFormat="1" ht="69" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" s="4" customFormat="1" ht="69.599999999999994" x14ac:dyDescent="0.25">
       <c r="A2" s="4">
         <v>165</v>
       </c>
@@ -1265,7 +1273,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="3" spans="1:9" s="4" customFormat="1" ht="69" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" s="4" customFormat="1" ht="69.599999999999994" x14ac:dyDescent="0.25">
       <c r="A3" s="4">
         <v>161</v>
       </c>
@@ -1294,7 +1302,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="96.6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" ht="97.45" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>160</v>
       </c>
@@ -1323,33 +1331,36 @@
         <v>38</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="179.4" x14ac:dyDescent="0.25">
-      <c r="A5">
+    <row r="5" spans="1:9" s="4" customFormat="1" ht="180.95" x14ac:dyDescent="0.25">
+      <c r="A5" s="4">
         <v>159</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B5" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="C5" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="D5" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="E5">
+      <c r="E5" s="4">
         <v>2</v>
       </c>
-      <c r="F5">
+      <c r="F5" s="4">
         <v>2</v>
       </c>
-      <c r="G5" t="s">
+      <c r="G5" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="H5" s="1" t="s">
+      <c r="H5" s="5" t="s">
         <v>26</v>
       </c>
+      <c r="I5" s="5" t="s">
+        <v>43</v>
+      </c>
     </row>
-    <row r="6" spans="1:9" s="4" customFormat="1" ht="110.4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" s="4" customFormat="1" ht="111.35" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
         <v>154</v>
       </c>
@@ -1378,7 +1389,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="7" spans="1:9" s="4" customFormat="1" ht="82.8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" s="4" customFormat="1" ht="83.5" x14ac:dyDescent="0.25">
       <c r="A7" s="4">
         <v>153</v>
       </c>
@@ -1407,7 +1418,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="110.4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" ht="111.35" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>143</v>
       </c>
@@ -1436,7 +1447,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="9" spans="1:9" s="2" customFormat="1" ht="110.4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" s="2" customFormat="1" ht="111.35" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>142</v>
       </c>
@@ -1465,33 +1476,36 @@
         <v>37</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="96.6" x14ac:dyDescent="0.25">
-      <c r="A10">
+    <row r="10" spans="1:9" s="4" customFormat="1" ht="97.45" x14ac:dyDescent="0.25">
+      <c r="A10" s="4">
         <v>98</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="B10" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="C10" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="D10" s="1" t="s">
+      <c r="D10" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="E10">
+      <c r="E10" s="4">
         <v>3</v>
       </c>
-      <c r="F10">
+      <c r="F10" s="4">
         <v>3</v>
       </c>
-      <c r="G10" t="s">
+      <c r="G10" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="H10" s="1" t="s">
+      <c r="H10" s="5" t="s">
         <v>31</v>
       </c>
+      <c r="I10" s="5" t="s">
+        <v>44</v>
+      </c>
     </row>
-    <row r="11" spans="1:9" s="4" customFormat="1" ht="96.6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" s="4" customFormat="1" ht="97.45" x14ac:dyDescent="0.25">
       <c r="A11" s="4">
         <v>89</v>
       </c>
@@ -1520,33 +1534,36 @@
         <v>35</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="138" x14ac:dyDescent="0.25">
-      <c r="A12">
+    <row r="12" spans="1:9" s="4" customFormat="1" ht="139.19999999999999" x14ac:dyDescent="0.25">
+      <c r="A12" s="4">
         <v>39</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="B12" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C12" s="1" t="s">
+      <c r="C12" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="D12" s="1" t="s">
+      <c r="D12" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="E12">
+      <c r="E12" s="4">
         <v>1</v>
       </c>
-      <c r="F12">
+      <c r="F12" s="4">
         <v>1</v>
       </c>
-      <c r="G12" t="s">
+      <c r="G12" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="H12" s="1" t="s">
+      <c r="H12" s="5" t="s">
         <v>33</v>
       </c>
+      <c r="I12" s="5" t="s">
+        <v>44</v>
+      </c>
     </row>
-    <row r="13" spans="1:9" ht="110.4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" ht="111.35" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>34</v>
       </c>
@@ -1575,6 +1592,6 @@
   </sheetData>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>